--- a/data/trans_dic/P25A_6_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_6_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón)</t>
+          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -647,32 +672,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,69</t>
+          <t>0,0; 10,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,91</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 11,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>0,0; 12,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,49</t>
+          <t>0,0; 6,68</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,53</t>
         </is>
       </c>
     </row>
@@ -747,7 +802,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -777,10 +832,25 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,14</t>
+          <t>0,0; 11,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -857,12 +942,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -877,22 +962,37 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,7</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,11</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,68</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,2</t>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,77</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,9%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0,0; 4,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 6,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 2,83</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,55</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,46</t>
+          <t>0,0; 8,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,4</t>
+          <t>1,2; 10,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 22,36</t>
+          <t>1,74; 28,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,26</t>
+          <t>3,36; 30,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 11,31</t>
+          <t>0,0; 15,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,13</t>
+          <t>0,0; 14,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,84</t>
+          <t>0,93; 8,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 8,61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 22,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 18,13</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,91; 17,57</t>
+          <t>0,0; 16,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 19,36</t>
+          <t>3,13; 25,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 13,75</t>
+          <t>0,0; 19,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 13,58</t>
+          <t>2,39; 25,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,8</t>
+          <t>1,99; 15,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 20,85</t>
+          <t>0,0; 8,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 12,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,89; 11,83</t>
+          <t>2,7; 21,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 14,57</t>
+          <t>1,72; 13,25</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 13,21</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 19,5</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,2</t>
+          <t>0,26; 2,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,93</t>
+          <t>1,11; 4,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,16</t>
+          <t>0,72; 5,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,96</t>
+          <t>1,39; 7,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,66</t>
+          <t>0,78; 3,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,34</t>
+          <t>0,23; 2,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,66</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,6</t>
+          <t>1,45; 5,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,45</t>
+          <t>0,75; 2,71</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 2,81</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 3,18</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 5,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3117</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5706</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3117</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5706</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14232</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14753</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13905</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17993</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16094</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14417</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15730</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19030</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17038</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15995</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11433</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12597</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10523</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11649</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10345</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14142</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11448</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14609</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5623</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11817</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17096</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5127</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9811</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9578</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11817</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17096</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13901</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1590; 14066</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2149; 35602</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5140; 45850</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 17094</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13872</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2501; 22657</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3378; 19443</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1925; 49038</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4931; 52550</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4255</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9813</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4799</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>15427</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8852</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>19358</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13107</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>11680</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4799</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>34784</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17700</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2730; 22197</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17806</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3291; 35190</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2736; 21863</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9134</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5695; 46143</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4236; 32718</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4131; 25418</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15798</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>15597; 68001</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8939</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>18576</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>16616</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>32523</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19232</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8404</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>31584</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>28171</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>26980</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>21686</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>64107</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2292; 25103</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8465; 37323</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5698; 46193</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14567; 73311</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8036; 38395</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1894; 20072</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 18148</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>16019; 61094</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14428; 52046</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>13535; 44994</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>8658; 51228</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>38545; 109807</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>